--- a/i_codebooks/D5_Table_4_IR_ImmDis.xlsx
+++ b/i_codebooks/D5_Table_4_IR_ImmDis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="162">
   <si>
     <t>metadata_content</t>
   </si>
@@ -515,6 +515,15 @@
   </si>
   <si>
     <t>IR of flares (first, second, third)</t>
+  </si>
+  <si>
+    <t>Number of persons who have at least one pregnancy after start of follow-up</t>
+  </si>
+  <si>
+    <t>Total follow-up time regardless of interruptions from start of follow-up (PY) while persons are pregnant</t>
+  </si>
+  <si>
+    <t>Number of persons who have at least one pregnancy after the first flare</t>
   </si>
 </sst>
 </file>
@@ -582,7 +591,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -603,7 +612,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -679,7 +694,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -771,8 +786,15 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1153,11 +1175,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W49"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C45" sqref="C45"/>
+      <selection pane="bottomRight" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -1548,7 +1570,7 @@
         <v>124</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
@@ -1579,7 +1601,7 @@
         <v>125</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>107</v>
+        <v>160</v>
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
@@ -1901,7 +1923,7 @@
         <v>129</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>106</v>
+        <v>161</v>
       </c>
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
@@ -1928,11 +1950,11 @@
       <c r="W23" s="23"/>
     </row>
     <row r="24" spans="1:23" s="25" customFormat="1" ht="15.6">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="B24" s="35" t="s">
-        <v>107</v>
+      <c r="B24" s="40" t="s">
+        <v>160</v>
       </c>
       <c r="C24" s="23"/>
       <c r="D24" s="23"/>
@@ -1959,10 +1981,10 @@
       <c r="W24" s="23"/>
     </row>
     <row r="25" spans="1:23" s="25" customFormat="1" ht="15.6">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="40" t="s">
         <v>108</v>
       </c>
       <c r="C25" s="23"/>
@@ -1990,10 +2012,10 @@
       <c r="W25" s="23"/>
     </row>
     <row r="26" spans="1:23" s="25" customFormat="1" ht="15.6">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="41" t="s">
         <v>154</v>
       </c>
       <c r="C26" s="23"/>
@@ -2023,10 +2045,10 @@
       <c r="W26" s="23"/>
     </row>
     <row r="27" spans="1:23" s="25" customFormat="1" ht="15.6">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="B27" s="38" t="s">
+      <c r="B27" s="42" t="s">
         <v>140</v>
       </c>
       <c r="C27" s="23"/>
@@ -2056,10 +2078,10 @@
       <c r="W27" s="23"/>
     </row>
     <row r="28" spans="1:23" s="25" customFormat="1" ht="15.6">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="B28" s="38" t="s">
+      <c r="B28" s="42" t="s">
         <v>141</v>
       </c>
       <c r="C28" s="23"/>
@@ -2250,10 +2272,10 @@
       <c r="W33" s="20"/>
     </row>
     <row r="34" spans="1:23" ht="15.6">
-      <c r="A34" s="20" t="s">
+      <c r="A34" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="40" t="s">
         <v>106</v>
       </c>
       <c r="C34" s="20"/>
@@ -2281,10 +2303,10 @@
       <c r="W34" s="20"/>
     </row>
     <row r="35" spans="1:23" ht="15.6">
-      <c r="A35" s="20" t="s">
+      <c r="A35" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="40" t="s">
         <v>107</v>
       </c>
       <c r="C35" s="20"/>
@@ -2312,10 +2334,10 @@
       <c r="W35" s="20"/>
     </row>
     <row r="36" spans="1:23" ht="15.6">
-      <c r="A36" s="20" t="s">
+      <c r="A36" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="B36" s="29" t="s">
+      <c r="B36" s="40" t="s">
         <v>108</v>
       </c>
       <c r="C36" s="20"/>
@@ -2343,10 +2365,10 @@
       <c r="W36" s="20"/>
     </row>
     <row r="37" spans="1:23" ht="15.6">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="40" t="s">
         <v>155</v>
       </c>
       <c r="C37" s="20"/>
@@ -2376,10 +2398,10 @@
       <c r="W37" s="20"/>
     </row>
     <row r="38" spans="1:23" ht="15.6">
-      <c r="A38" s="20" t="s">
+      <c r="A38" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="B38" s="28" t="s">
+      <c r="B38" s="42" t="s">
         <v>140</v>
       </c>
       <c r="C38" s="20"/>
@@ -2409,10 +2431,10 @@
       <c r="W38" s="20"/>
     </row>
     <row r="39" spans="1:23" ht="15.6">
-      <c r="A39" s="20" t="s">
+      <c r="A39" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="B39" s="28" t="s">
+      <c r="B39" s="42" t="s">
         <v>141</v>
       </c>
       <c r="C39" s="20"/>
@@ -2654,8 +2676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/i_codebooks/D5_Table_4_IR_ImmDis.xlsx
+++ b/i_codebooks/D5_Table_4_IR_ImmDis.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20414"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rosgin2\Documents\ROC18_Objective_2\i_codebooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davide\Documents\Git repositories\Work\ROC18_Objective_2\i_codebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475A67FC-2DB7-4362-A664-8C67DABC1A2F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -256,9 +257,6 @@
     <t>Total follow-up time regardless of interruptions from start of follow-up (90 days after T0) (PY)</t>
   </si>
   <si>
-    <t>Number of flares within 90 days after vaccinations</t>
-  </si>
-  <si>
     <t>Follow-up time (PY) until censor or first flare, excluding interruptions</t>
   </si>
   <si>
@@ -524,12 +522,15 @@
   </si>
   <si>
     <t>Number of persons who have at least one pregnancy after the first flare</t>
+  </si>
+  <si>
+    <t>Number of flares between cohort entry and start of follow up</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -798,7 +799,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1075,17 +1076,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="59.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="90.6640625" customWidth="1"/>
+    <col min="1" max="1" width="59.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="90.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1101,7 +1102,7 @@
         <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1109,7 +1110,7 @@
         <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1172,33 +1173,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A24" sqref="A24"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="21"/>
+    <col min="1" max="1" width="8.7109375" style="21"/>
     <col min="2" max="2" width="133" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" style="21" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" style="21" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5546875" style="21" customWidth="1"/>
-    <col min="7" max="7" width="31.21875" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="21" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" style="21" customWidth="1"/>
+    <col min="7" max="7" width="31.28515625" style="21" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.77734375" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875" style="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31.77734375" style="21" customWidth="1"/>
-    <col min="12" max="16384" width="8.6640625" style="21"/>
+    <col min="9" max="9" width="9.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.7109375" style="21" customWidth="1"/>
+    <col min="12" max="16384" width="8.7109375" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.6">
+    <row r="1" spans="1:23" ht="15.75">
       <c r="A1" s="17" t="s">
         <v>10</v>
       </c>
@@ -1245,7 +1246,7 @@
       <c r="V1" s="20"/>
       <c r="W1" s="20"/>
     </row>
-    <row r="2" spans="1:23" ht="187.2">
+    <row r="2" spans="1:23" ht="189">
       <c r="A2" s="19" t="s">
         <v>37</v>
       </c>
@@ -1276,7 +1277,7 @@
       <c r="V2" s="20"/>
       <c r="W2" s="20"/>
     </row>
-    <row r="3" spans="1:23" s="25" customFormat="1" ht="15.6">
+    <row r="3" spans="1:23" s="25" customFormat="1" ht="15.75">
       <c r="A3" s="23" t="s">
         <v>36</v>
       </c>
@@ -1288,10 +1289,10 @@
       <c r="E3" s="23"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I3" s="23"/>
       <c r="J3" s="23"/>
@@ -1309,7 +1310,7 @@
       <c r="V3" s="23"/>
       <c r="W3" s="23"/>
     </row>
-    <row r="4" spans="1:23" s="25" customFormat="1" ht="15.6">
+    <row r="4" spans="1:23" s="25" customFormat="1" ht="15.75">
       <c r="A4" s="23" t="s">
         <v>67</v>
       </c>
@@ -1321,10 +1322,10 @@
       <c r="E4" s="23"/>
       <c r="F4" s="23"/>
       <c r="G4" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I4" s="23"/>
       <c r="J4" s="23"/>
@@ -1342,9 +1343,9 @@
       <c r="V4" s="23"/>
       <c r="W4" s="23"/>
     </row>
-    <row r="5" spans="1:23" s="25" customFormat="1" ht="15.6">
+    <row r="5" spans="1:23" s="25" customFormat="1" ht="15.75">
       <c r="A5" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B5" s="24" t="s">
         <v>71</v>
@@ -1356,7 +1357,7 @@
       <c r="G5" s="23"/>
       <c r="H5" s="23"/>
       <c r="I5" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J5" s="23"/>
       <c r="K5" s="23"/>
@@ -1373,12 +1374,12 @@
       <c r="V5" s="23"/>
       <c r="W5" s="23"/>
     </row>
-    <row r="6" spans="1:23" s="25" customFormat="1" ht="15.6">
+    <row r="6" spans="1:23" s="25" customFormat="1" ht="15.75">
       <c r="A6" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>72</v>
+        <v>161</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -1387,7 +1388,7 @@
       <c r="G6" s="23"/>
       <c r="H6" s="23"/>
       <c r="I6" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J6" s="23"/>
       <c r="K6" s="23"/>
@@ -1404,12 +1405,12 @@
       <c r="V6" s="23"/>
       <c r="W6" s="23"/>
     </row>
-    <row r="7" spans="1:23" ht="15.6">
+    <row r="7" spans="1:23" ht="15.75">
       <c r="A7" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
@@ -1418,7 +1419,7 @@
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
       <c r="I7" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
@@ -1435,7 +1436,7 @@
       <c r="V7" s="20"/>
       <c r="W7" s="20"/>
     </row>
-    <row r="8" spans="1:23" ht="15.6">
+    <row r="8" spans="1:23" ht="15.75">
       <c r="A8" s="20" t="s">
         <v>68</v>
       </c>
@@ -1449,7 +1450,7 @@
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
       <c r="I8" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
@@ -1466,12 +1467,12 @@
       <c r="V8" s="20"/>
       <c r="W8" s="20"/>
     </row>
-    <row r="9" spans="1:23" ht="15.6">
+    <row r="9" spans="1:23" ht="15.75">
       <c r="A9" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
@@ -1480,11 +1481,11 @@
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
       <c r="I9" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J9" s="20"/>
       <c r="K9" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L9" s="20"/>
       <c r="M9" s="20"/>
@@ -1499,12 +1500,12 @@
       <c r="V9" s="20"/>
       <c r="W9" s="20"/>
     </row>
-    <row r="10" spans="1:23" ht="15.6">
+    <row r="10" spans="1:23" ht="15.75">
       <c r="A10" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
@@ -1513,11 +1514,11 @@
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
       <c r="I10" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J10" s="20"/>
       <c r="K10" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L10" s="20"/>
       <c r="M10" s="20"/>
@@ -1532,12 +1533,12 @@
       <c r="V10" s="20"/>
       <c r="W10" s="20"/>
     </row>
-    <row r="11" spans="1:23" ht="15.6">
+    <row r="11" spans="1:23" ht="15.75">
       <c r="A11" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
@@ -1546,11 +1547,11 @@
       <c r="G11" s="20"/>
       <c r="H11" s="20"/>
       <c r="I11" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J11" s="20"/>
       <c r="K11" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L11" s="20"/>
       <c r="M11" s="20"/>
@@ -1565,12 +1566,12 @@
       <c r="V11" s="20"/>
       <c r="W11" s="20"/>
     </row>
-    <row r="12" spans="1:23" ht="15.6">
+    <row r="12" spans="1:23" ht="15.75">
       <c r="A12" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
@@ -1579,7 +1580,7 @@
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
       <c r="I12" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
@@ -1596,12 +1597,12 @@
       <c r="V12" s="20"/>
       <c r="W12" s="20"/>
     </row>
-    <row r="13" spans="1:23" ht="15.6">
+    <row r="13" spans="1:23" ht="15.75">
       <c r="A13" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
@@ -1610,7 +1611,7 @@
       <c r="G13" s="20"/>
       <c r="H13" s="20"/>
       <c r="I13" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
@@ -1627,12 +1628,12 @@
       <c r="V13" s="20"/>
       <c r="W13" s="20"/>
     </row>
-    <row r="14" spans="1:23" ht="15.6">
+    <row r="14" spans="1:23" ht="15.75">
       <c r="A14" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
@@ -1641,7 +1642,7 @@
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
       <c r="I14" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
@@ -1658,12 +1659,12 @@
       <c r="V14" s="20"/>
       <c r="W14" s="20"/>
     </row>
-    <row r="15" spans="1:23" ht="15.6">
+    <row r="15" spans="1:23" ht="15.75">
       <c r="A15" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C15" s="20"/>
       <c r="D15" s="20"/>
@@ -1672,11 +1673,11 @@
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
       <c r="I15" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J15" s="20"/>
       <c r="K15" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L15" s="20"/>
       <c r="M15" s="20"/>
@@ -1691,12 +1692,12 @@
       <c r="V15" s="20"/>
       <c r="W15" s="20"/>
     </row>
-    <row r="16" spans="1:23" ht="15.6">
+    <row r="16" spans="1:23" ht="15.75">
       <c r="A16" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
@@ -1705,11 +1706,11 @@
       <c r="G16" s="20"/>
       <c r="H16" s="20"/>
       <c r="I16" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J16" s="20"/>
       <c r="K16" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L16" s="20"/>
       <c r="M16" s="20"/>
@@ -1724,12 +1725,12 @@
       <c r="V16" s="20"/>
       <c r="W16" s="20"/>
     </row>
-    <row r="17" spans="1:23" ht="15.6">
+    <row r="17" spans="1:23" ht="15.75">
       <c r="A17" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
@@ -1738,11 +1739,11 @@
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
       <c r="I17" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J17" s="20"/>
       <c r="K17" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L17" s="20"/>
       <c r="M17" s="20"/>
@@ -1757,12 +1758,12 @@
       <c r="V17" s="20"/>
       <c r="W17" s="20"/>
     </row>
-    <row r="18" spans="1:23" s="25" customFormat="1" ht="15.6">
+    <row r="18" spans="1:23" s="25" customFormat="1" ht="15.75">
       <c r="A18" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C18" s="23"/>
       <c r="D18" s="23"/>
@@ -1771,7 +1772,7 @@
       <c r="G18" s="23"/>
       <c r="H18" s="23"/>
       <c r="I18" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J18" s="23"/>
       <c r="K18" s="23"/>
@@ -1788,7 +1789,7 @@
       <c r="V18" s="23"/>
       <c r="W18" s="23"/>
     </row>
-    <row r="19" spans="1:23" s="25" customFormat="1" ht="15.6">
+    <row r="19" spans="1:23" s="25" customFormat="1" ht="15.75">
       <c r="A19" s="23" t="s">
         <v>69</v>
       </c>
@@ -1802,7 +1803,7 @@
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
       <c r="I19" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J19" s="23"/>
       <c r="K19" s="23"/>
@@ -1819,12 +1820,12 @@
       <c r="V19" s="23"/>
       <c r="W19" s="23"/>
     </row>
-    <row r="20" spans="1:23" s="25" customFormat="1" ht="15.6">
+    <row r="20" spans="1:23" s="25" customFormat="1" ht="15.75">
       <c r="A20" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
@@ -1833,11 +1834,11 @@
       <c r="G20" s="23"/>
       <c r="H20" s="23"/>
       <c r="I20" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J20" s="23"/>
       <c r="K20" s="23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L20" s="23"/>
       <c r="M20" s="23"/>
@@ -1852,12 +1853,12 @@
       <c r="V20" s="23"/>
       <c r="W20" s="23"/>
     </row>
-    <row r="21" spans="1:23" s="25" customFormat="1" ht="15.6">
+    <row r="21" spans="1:23" s="25" customFormat="1" ht="15.75">
       <c r="A21" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
@@ -1866,11 +1867,11 @@
       <c r="G21" s="23"/>
       <c r="H21" s="23"/>
       <c r="I21" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J21" s="23"/>
       <c r="K21" s="23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L21" s="23"/>
       <c r="M21" s="23"/>
@@ -1885,12 +1886,12 @@
       <c r="V21" s="23"/>
       <c r="W21" s="23"/>
     </row>
-    <row r="22" spans="1:23" s="25" customFormat="1" ht="15.6">
+    <row r="22" spans="1:23" s="25" customFormat="1" ht="15.75">
       <c r="A22" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
@@ -1899,11 +1900,11 @@
       <c r="G22" s="23"/>
       <c r="H22" s="23"/>
       <c r="I22" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J22" s="23"/>
       <c r="K22" s="23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L22" s="23"/>
       <c r="M22" s="23"/>
@@ -1918,12 +1919,12 @@
       <c r="V22" s="23"/>
       <c r="W22" s="23"/>
     </row>
-    <row r="23" spans="1:23" s="25" customFormat="1" ht="15.6">
+    <row r="23" spans="1:23" s="25" customFormat="1" ht="15.75">
       <c r="A23" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
@@ -1932,7 +1933,7 @@
       <c r="G23" s="23"/>
       <c r="H23" s="23"/>
       <c r="I23" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J23" s="23"/>
       <c r="K23" s="23"/>
@@ -1949,12 +1950,12 @@
       <c r="V23" s="23"/>
       <c r="W23" s="23"/>
     </row>
-    <row r="24" spans="1:23" s="25" customFormat="1" ht="15.6">
+    <row r="24" spans="1:23" s="25" customFormat="1" ht="15.75">
       <c r="A24" s="39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B24" s="40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C24" s="23"/>
       <c r="D24" s="23"/>
@@ -1963,7 +1964,7 @@
       <c r="G24" s="23"/>
       <c r="H24" s="23"/>
       <c r="I24" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J24" s="23"/>
       <c r="K24" s="23"/>
@@ -1980,12 +1981,12 @@
       <c r="V24" s="23"/>
       <c r="W24" s="23"/>
     </row>
-    <row r="25" spans="1:23" s="25" customFormat="1" ht="15.6">
+    <row r="25" spans="1:23" s="25" customFormat="1" ht="15.75">
       <c r="A25" s="39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B25" s="40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C25" s="23"/>
       <c r="D25" s="23"/>
@@ -1994,7 +1995,7 @@
       <c r="G25" s="23"/>
       <c r="H25" s="23"/>
       <c r="I25" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J25" s="23"/>
       <c r="K25" s="23"/>
@@ -2011,12 +2012,12 @@
       <c r="V25" s="23"/>
       <c r="W25" s="23"/>
     </row>
-    <row r="26" spans="1:23" s="25" customFormat="1" ht="15.6">
+    <row r="26" spans="1:23" s="25" customFormat="1" ht="15.75">
       <c r="A26" s="39" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B26" s="41" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="23"/>
@@ -2025,11 +2026,11 @@
       <c r="G26" s="23"/>
       <c r="H26" s="23"/>
       <c r="I26" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J26" s="23"/>
       <c r="K26" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L26" s="23"/>
       <c r="M26" s="23"/>
@@ -2044,12 +2045,12 @@
       <c r="V26" s="23"/>
       <c r="W26" s="23"/>
     </row>
-    <row r="27" spans="1:23" s="25" customFormat="1" ht="15.6">
+    <row r="27" spans="1:23" s="25" customFormat="1" ht="15.75">
       <c r="A27" s="39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B27" s="42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
@@ -2058,11 +2059,11 @@
       <c r="G27" s="23"/>
       <c r="H27" s="23"/>
       <c r="I27" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J27" s="23"/>
       <c r="K27" s="23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L27" s="23"/>
       <c r="M27" s="23"/>
@@ -2077,12 +2078,12 @@
       <c r="V27" s="23"/>
       <c r="W27" s="23"/>
     </row>
-    <row r="28" spans="1:23" s="25" customFormat="1" ht="15.6">
+    <row r="28" spans="1:23" s="25" customFormat="1" ht="15.75">
       <c r="A28" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B28" s="42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C28" s="23"/>
       <c r="D28" s="23"/>
@@ -2091,11 +2092,11 @@
       <c r="G28" s="23"/>
       <c r="H28" s="23"/>
       <c r="I28" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J28" s="23"/>
       <c r="K28" s="23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L28" s="23"/>
       <c r="M28" s="23"/>
@@ -2110,12 +2111,12 @@
       <c r="V28" s="23"/>
       <c r="W28" s="23"/>
     </row>
-    <row r="29" spans="1:23" ht="15.6">
+    <row r="29" spans="1:23" ht="15.75">
       <c r="A29" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C29" s="20"/>
       <c r="D29" s="20"/>
@@ -2124,7 +2125,7 @@
       <c r="G29" s="20"/>
       <c r="H29" s="20"/>
       <c r="I29" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J29" s="20"/>
       <c r="K29" s="20"/>
@@ -2141,9 +2142,9 @@
       <c r="V29" s="20"/>
       <c r="W29" s="20"/>
     </row>
-    <row r="30" spans="1:23" ht="15.6">
+    <row r="30" spans="1:23" ht="15.75">
       <c r="A30" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B30" s="26" t="s">
         <v>66</v>
@@ -2155,7 +2156,7 @@
       <c r="G30" s="20"/>
       <c r="H30" s="20"/>
       <c r="I30" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J30" s="20"/>
       <c r="K30" s="20"/>
@@ -2172,12 +2173,12 @@
       <c r="V30" s="20"/>
       <c r="W30" s="20"/>
     </row>
-    <row r="31" spans="1:23" ht="15.6">
+    <row r="31" spans="1:23" ht="15.75">
       <c r="A31" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C31" s="20"/>
       <c r="D31" s="20"/>
@@ -2186,11 +2187,11 @@
       <c r="G31" s="20"/>
       <c r="H31" s="20"/>
       <c r="I31" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J31" s="20"/>
       <c r="K31" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L31" s="20"/>
       <c r="M31" s="20"/>
@@ -2205,12 +2206,12 @@
       <c r="V31" s="20"/>
       <c r="W31" s="20"/>
     </row>
-    <row r="32" spans="1:23" ht="15.6">
+    <row r="32" spans="1:23" ht="15.75">
       <c r="A32" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C32" s="20"/>
       <c r="D32" s="20"/>
@@ -2219,11 +2220,11 @@
       <c r="G32" s="20"/>
       <c r="H32" s="20"/>
       <c r="I32" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J32" s="20"/>
       <c r="K32" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L32" s="20"/>
       <c r="M32" s="20"/>
@@ -2238,12 +2239,12 @@
       <c r="V32" s="20"/>
       <c r="W32" s="20"/>
     </row>
-    <row r="33" spans="1:23" ht="15.6">
+    <row r="33" spans="1:23" ht="15.75">
       <c r="A33" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C33" s="20"/>
       <c r="D33" s="20"/>
@@ -2252,11 +2253,11 @@
       <c r="G33" s="20"/>
       <c r="H33" s="20"/>
       <c r="I33" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J33" s="20"/>
       <c r="K33" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L33" s="20"/>
       <c r="M33" s="20"/>
@@ -2271,12 +2272,12 @@
       <c r="V33" s="20"/>
       <c r="W33" s="20"/>
     </row>
-    <row r="34" spans="1:23" ht="15.6">
+    <row r="34" spans="1:23" ht="15.75">
       <c r="A34" s="39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B34" s="40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C34" s="20"/>
       <c r="D34" s="20"/>
@@ -2285,7 +2286,7 @@
       <c r="G34" s="20"/>
       <c r="H34" s="20"/>
       <c r="I34" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J34" s="20"/>
       <c r="K34" s="20"/>
@@ -2302,12 +2303,12 @@
       <c r="V34" s="20"/>
       <c r="W34" s="20"/>
     </row>
-    <row r="35" spans="1:23" ht="15.6">
+    <row r="35" spans="1:23" ht="15.75">
       <c r="A35" s="39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B35" s="40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C35" s="20"/>
       <c r="D35" s="20"/>
@@ -2316,7 +2317,7 @@
       <c r="G35" s="20"/>
       <c r="H35" s="20"/>
       <c r="I35" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J35" s="20"/>
       <c r="K35" s="20"/>
@@ -2333,12 +2334,12 @@
       <c r="V35" s="20"/>
       <c r="W35" s="20"/>
     </row>
-    <row r="36" spans="1:23" ht="15.6">
+    <row r="36" spans="1:23" ht="15.75">
       <c r="A36" s="39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B36" s="40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C36" s="20"/>
       <c r="D36" s="20"/>
@@ -2347,7 +2348,7 @@
       <c r="G36" s="20"/>
       <c r="H36" s="20"/>
       <c r="I36" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J36" s="20"/>
       <c r="K36" s="20"/>
@@ -2364,12 +2365,12 @@
       <c r="V36" s="20"/>
       <c r="W36" s="20"/>
     </row>
-    <row r="37" spans="1:23" ht="15.6">
+    <row r="37" spans="1:23" ht="15.75">
       <c r="A37" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B37" s="40" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C37" s="20"/>
       <c r="D37" s="20"/>
@@ -2378,11 +2379,11 @@
       <c r="G37" s="20"/>
       <c r="H37" s="20"/>
       <c r="I37" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J37" s="20"/>
       <c r="K37" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L37" s="20"/>
       <c r="M37" s="20"/>
@@ -2397,12 +2398,12 @@
       <c r="V37" s="20"/>
       <c r="W37" s="20"/>
     </row>
-    <row r="38" spans="1:23" ht="15.6">
+    <row r="38" spans="1:23" ht="15.75">
       <c r="A38" s="39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B38" s="42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C38" s="20"/>
       <c r="D38" s="20"/>
@@ -2411,11 +2412,11 @@
       <c r="G38" s="20"/>
       <c r="H38" s="20"/>
       <c r="I38" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J38" s="20"/>
       <c r="K38" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L38" s="20"/>
       <c r="M38" s="20"/>
@@ -2430,12 +2431,12 @@
       <c r="V38" s="20"/>
       <c r="W38" s="20"/>
     </row>
-    <row r="39" spans="1:23" ht="15.6">
+    <row r="39" spans="1:23" ht="15.75">
       <c r="A39" s="39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B39" s="42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C39" s="20"/>
       <c r="D39" s="20"/>
@@ -2444,11 +2445,11 @@
       <c r="G39" s="20"/>
       <c r="H39" s="20"/>
       <c r="I39" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J39" s="20"/>
       <c r="K39" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L39" s="20"/>
       <c r="M39" s="20"/>
@@ -2463,7 +2464,7 @@
       <c r="V39" s="20"/>
       <c r="W39" s="20"/>
     </row>
-    <row r="40" spans="1:23" ht="15.6">
+    <row r="40" spans="1:23" ht="15.75">
       <c r="A40" s="20"/>
       <c r="B40" s="26"/>
       <c r="C40" s="20"/>
@@ -2488,7 +2489,7 @@
       <c r="V40" s="20"/>
       <c r="W40" s="20"/>
     </row>
-    <row r="41" spans="1:23" ht="15.6">
+    <row r="41" spans="1:23" ht="15.75">
       <c r="A41" s="20"/>
       <c r="B41" s="31"/>
       <c r="C41" s="20"/>
@@ -2513,7 +2514,7 @@
       <c r="V41" s="20"/>
       <c r="W41" s="20"/>
     </row>
-    <row r="42" spans="1:23" ht="15.6">
+    <row r="42" spans="1:23" ht="15.75">
       <c r="A42" s="20"/>
       <c r="B42" s="28"/>
       <c r="C42" s="20"/>
@@ -2538,7 +2539,7 @@
       <c r="V42" s="20"/>
       <c r="W42" s="20"/>
     </row>
-    <row r="43" spans="1:23" ht="15.6">
+    <row r="43" spans="1:23" ht="15.75">
       <c r="A43" s="20"/>
       <c r="B43" s="31"/>
       <c r="C43" s="20"/>
@@ -2563,7 +2564,7 @@
       <c r="V43" s="20"/>
       <c r="W43" s="20"/>
     </row>
-    <row r="44" spans="1:23" ht="15.6">
+    <row r="44" spans="1:23" ht="15.75">
       <c r="A44" s="20"/>
       <c r="B44" s="28"/>
       <c r="C44" s="20"/>
@@ -2588,7 +2589,7 @@
       <c r="V44" s="20"/>
       <c r="W44" s="20"/>
     </row>
-    <row r="45" spans="1:23" ht="15.6">
+    <row r="45" spans="1:23" ht="15.75">
       <c r="A45" s="20"/>
       <c r="B45" s="31"/>
       <c r="C45" s="20"/>
@@ -2613,7 +2614,7 @@
       <c r="V45" s="20"/>
       <c r="W45" s="20"/>
     </row>
-    <row r="46" spans="1:23" ht="15.6">
+    <row r="46" spans="1:23" ht="15.75">
       <c r="A46" s="20"/>
       <c r="B46" s="28"/>
       <c r="C46" s="20"/>
@@ -2638,7 +2639,7 @@
       <c r="V46" s="20"/>
       <c r="W46" s="20"/>
     </row>
-    <row r="47" spans="1:23" ht="15.6">
+    <row r="47" spans="1:23" ht="15.75">
       <c r="A47" s="20"/>
       <c r="B47" s="31"/>
       <c r="C47" s="20"/>
@@ -2673,20 +2674,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.109375" customWidth="1"/>
-    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2858,26 +2859,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:B13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="141.77734375" style="16" customWidth="1"/>
-    <col min="2" max="2" width="30.21875" customWidth="1"/>
+    <col min="1" max="1" width="141.7109375" style="16" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6">
+    <row r="1" spans="1:12" ht="15.75">
       <c r="A1" s="10"/>
       <c r="B1" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>121</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>122</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>1</v>
@@ -2907,7 +2908,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.6">
+    <row r="2" spans="1:12" ht="15.75">
       <c r="A2" s="11" t="s">
         <v>52</v>
       </c>
@@ -2915,7 +2916,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.6">
+    <row r="3" spans="1:12" ht="15.75">
       <c r="A3" s="11" t="s">
         <v>70</v>
       </c>
@@ -2923,31 +2924,31 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.6">
+    <row r="4" spans="1:12" ht="15.75">
       <c r="A4" s="11" t="s">
         <v>71</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15.6">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75">
       <c r="A5" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75">
+      <c r="A6" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15.6">
-      <c r="A6" s="12" t="s">
-        <v>73</v>
-      </c>
       <c r="B6" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15.6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75">
       <c r="A7" s="12" t="s">
         <v>64</v>
       </c>
@@ -2955,63 +2956,63 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="31.2">
+    <row r="8" spans="1:12" ht="31.5">
       <c r="A8" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75">
+      <c r="A9" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="15.6">
-      <c r="A9" s="14" t="s">
+      <c r="B9" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75">
+      <c r="A10" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B10" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.6">
-      <c r="A10" s="11" t="s">
+    <row r="11" spans="1:12" ht="15.75">
+      <c r="A11" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B11" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="31.5">
+      <c r="A12" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.6">
-      <c r="A11" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="31.2">
-      <c r="A12" s="13" t="s">
+    <row r="13" spans="1:12" ht="15.75">
+      <c r="A13" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="15.6">
-      <c r="A13" s="14" t="s">
-        <v>110</v>
-      </c>
       <c r="B13" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="30.6">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="30.75">
       <c r="A14" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15.6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.75">
       <c r="A15" s="11" t="s">
         <v>65</v>
       </c>
@@ -3019,100 +3020,100 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="31.2">
+    <row r="16" spans="1:12" ht="31.5">
       <c r="A16" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75">
+      <c r="A17" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.6">
-      <c r="A17" s="14" t="s">
+      <c r="B17" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75">
+      <c r="A18" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B18" s="6" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.6">
-      <c r="A18" s="11" t="s">
+    <row r="19" spans="1:2" ht="15.75">
+      <c r="A19" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="31.5">
+      <c r="A20" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.6">
-      <c r="A19" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B19" s="6" t="s">
+      <c r="B20" s="6" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="31.2">
-      <c r="A20" s="13" t="s">
+    <row r="21" spans="1:2" ht="15.75">
+      <c r="A21" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B21" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.6">
-      <c r="A21" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="30.6">
+    <row r="22" spans="1:2" ht="30.75">
       <c r="A22" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.6">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75">
       <c r="A23" s="11" t="s">
         <v>66</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="31.5">
+      <c r="A24" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="31.2">
-      <c r="A24" s="15" t="s">
+    <row r="25" spans="1:2" ht="15.75">
+      <c r="A25" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.6">
-      <c r="A25" s="14" t="s">
+      <c r="B25" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75">
+      <c r="A26" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B26" s="6" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.6">
-      <c r="A26" s="11" t="s">
+    <row r="27" spans="1:2" ht="15.75">
+      <c r="A27" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B27" s="6" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.6">
-      <c r="A27" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -3122,15 +3123,15 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="82.5546875" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="82.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/i_codebooks/D5_Table_4_IR_ImmDis.xlsx
+++ b/i_codebooks/D5_Table_4_IR_ImmDis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20415"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davide\Documents\Git repositories\Work\ROC18_Objective_2\i_codebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475A67FC-2DB7-4362-A664-8C67DABC1A2F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96889823-29D0-4BC4-BD5C-F5B5848919B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="163">
   <si>
     <t>metadata_content</t>
   </si>
@@ -525,6 +525,9 @@
   </si>
   <si>
     <t>Number of flares between cohort entry and start of follow up</t>
+  </si>
+  <si>
+    <t>empty</t>
   </si>
 </sst>
 </file>
@@ -2862,7 +2865,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -3126,14 +3129,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="82.5703125" customWidth="1"/>
     <col min="2" max="2" width="11.140625" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
